--- a/code/excels/kvConfig/pool_group_config.xlsx
+++ b/code/excels/kvConfig/pool_group_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="11580" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>池子组id</t>
   </si>
@@ -56,13 +56,13 @@
     <t>isVaild</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>天梯积分</t>
+    <t>卡片池1</t>
+  </si>
+  <si>
+    <t>卡片池2</t>
+  </si>
+  <si>
+    <t>卡片池3</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -115,6 +115,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -122,6 +160,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -129,14 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,24 +183,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,20 +228,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -196,65 +238,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -267,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +472,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,20 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,14 +1049,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1066,7 +1066,7 @@
     <col min="3" max="3" width="10.65" customWidth="1"/>
     <col min="4" max="4" width="12.8916666666667" customWidth="1"/>
     <col min="5" max="5" width="12.025" customWidth="1"/>
-    <col min="6" max="6" width="12.7583333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
@@ -1111,10 +1111,10 @@
     </row>
     <row r="3" s="6" customFormat="1" spans="1:6">
       <c r="A3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="6">
         <v>1000</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1001</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -1128,55 +1128,58 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>10001</v>
+      </c>
+      <c r="C5">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="6">
         <v>1002</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5">
-        <v>1003</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>10002</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7">
-        <v>1002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1187,10 +1190,10 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8">
-        <v>1003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+        <v>1001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1201,74 +1204,15 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9">
-        <v>1004</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1001</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11">
-        <v>1002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12">
-        <v>1003</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13">
-        <v>1005</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1284,7 +1228,7 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1362,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
